--- a/build2.7_260206/results/東北・北陸の冬季作付けなし/2.7b_data2022_import4_wval100_unlim_fbal_results.xlsx
+++ b/build2.7_260206/results/東北・北陸の冬季作付けなし/2.7b_data2022_import4_wval100_unlim_fbal_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ikiyo\OneDrive\MAFF_2025\workspace simul\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7602254E-CF97-48B3-8D95-5AF54BFEE7DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD94588-C71F-4EA6-8424-2C8ADB74AD78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="7" xr2:uid="{92E8D7B5-0A62-4449-B02A-F2C748FEFC75}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="7" xr2:uid="{48A35360-6578-4878-A116-0D908E454C3E}"/>
   </bookViews>
   <sheets>
     <sheet name="pcroprep" sheetId="1" r:id="rId1"/>
@@ -701,7 +701,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0BFA3A4-28AF-40AE-AC5F-4C5DBB6206CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC2145C5-1B35-44FE-83A2-E9278D0631F8}">
   <dimension ref="A1:G58"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1833,7 +1833,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A94FE0E-BBFB-44BD-8527-31E0469C8212}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9C3ECAC-5CC5-4FBA-9C33-B1DF4CF90DB9}">
   <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2287,7 +2287,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFB44B50-797F-4093-B07F-16D430EC8286}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A6BA16E-20B8-4786-B30C-E22EED821A42}">
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2714,7 +2714,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{719641FF-EFD0-4B1E-BE0B-811D728AA617}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F6FC52F-43F3-47B9-84E8-1A614D91784F}">
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3021,7 +3021,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE621257-B54E-400B-B2A8-C3CFDD7E3DB5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04D77CC8-D745-4AA1-975D-6B55137B9EF1}">
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -3615,7 +3615,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{369261B5-AD96-4C22-9265-461988393579}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD212F96-190A-465D-862A-3543371ACD7C}">
   <dimension ref="A1:Z56"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5614,7 +5614,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBE3798E-FBF9-4C63-B4BB-2C59A167ACCD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DCF0CB7-FFE1-45F0-95A6-5AA3310477E2}">
   <dimension ref="A1:AF5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -5935,7 +5935,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D1EF82F-D98C-45A3-93C6-BCF39C1DD700}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99FD3496-4822-4281-B8F6-C6AD2C05B315}">
   <dimension ref="A1:Z13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
